--- a/LGC_Motiv_results/study1/blood_NAD/20221114_CS_NAD_whole_blood_data.xlsx
+++ b/LGC_Motiv_results/study1/blood_NAD/20221114_CS_NAD_whole_blood_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loco\Documents\GitHub\LGC_motiv\LGC_Motiv_results\study1\blood_NAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clairis\Desktop\GitHub\LGC_motiv\LGC_Motiv_results\study1\blood_NAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774BBEFB-A0ED-4B42-95CB-04B539542317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76525A2-DB46-4AED-A471-A0EB8F145335}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="277" xr2:uid="{F62A85C5-58E9-4FF9-A043-57519E2747BB}"/>
   </bookViews>
@@ -22,13 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1063,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CFE9BD-280F-4F87-8D7A-76A24758A7C8}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4089,7 +4082,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L82">
+  <sortState ref="A2:L82">
     <sortCondition ref="A2:A82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4102,7 +4095,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -8077,6 +8070,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Irina xmlns="c7bbfe5c-3e6f-409d-9b67-9c1ca2a14071" xsi:nil="true"/>
@@ -8086,15 +8088,6 @@
     <TaxCatchAll xmlns="68868ead-3cd8-494b-9fdc-0ea8c62a0d0d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8117,6 +8110,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB1C7C6-F750-45B3-9E79-150809A58FFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CA4A7A1-3616-46B0-A3CA-92ABB49C0959}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -8131,12 +8132,4 @@
     <ds:schemaRef ds:uri="68868ead-3cd8-494b-9fdc-0ea8c62a0d0d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB1C7C6-F750-45B3-9E79-150809A58FFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LGC_Motiv_results/study1/blood_NAD/20221114_CS_NAD_whole_blood_data.xlsx
+++ b/LGC_Motiv_results/study1/blood_NAD/20221114_CS_NAD_whole_blood_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clairis\Desktop\GitHub\LGC_motiv\LGC_Motiv_results\study1\blood_NAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loco\Documents\GitHub\LGC_motiv\LGC_Motiv_results\study1\blood_NAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76525A2-DB46-4AED-A471-A0EB8F145335}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7520356-6032-4340-B504-B6CF1AEC1925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="277" xr2:uid="{F62A85C5-58E9-4FF9-A043-57519E2747BB}"/>
   </bookViews>
@@ -18,17 +18,25 @@
     <sheet name="pilots_only" sheetId="6" r:id="rId3"/>
     <sheet name="v1_vs_v2" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="172">
   <si>
     <t>ID</t>
   </si>
@@ -553,7 +561,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +593,12 @@
       <b/>
       <sz val="11"/>
       <name val="Nestle Text TF VN Book Cnd"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -666,7 +680,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,6 +750,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1057,7 +1077,8 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1365,8 +1386,8 @@
       <c r="G8" s="7">
         <v>0.11600000000000001</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>94</v>
+      <c r="H8" s="26">
+        <v>0.01</v>
       </c>
       <c r="I8" s="7">
         <v>1.028</v>
@@ -1525,8 +1546,8 @@
       <c r="G12" s="7">
         <v>0.02</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>94</v>
+      <c r="H12" s="26">
+        <v>0.01</v>
       </c>
       <c r="I12" s="7">
         <v>1.6060000000000001</v>
@@ -1881,8 +1902,8 @@
       <c r="G21" s="7">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>94</v>
+      <c r="H21" s="26">
+        <v>0.01</v>
       </c>
       <c r="I21" s="7">
         <v>2.0030000000000001</v>
@@ -2751,8 +2772,8 @@
       <c r="G43" s="7">
         <v>0.21</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>94</v>
+      <c r="H43" s="26">
+        <v>0.01</v>
       </c>
       <c r="I43" s="7">
         <v>4.8319999999999999</v>
@@ -3069,8 +3090,8 @@
       <c r="G51" s="7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>94</v>
+      <c r="H51" s="26">
+        <v>0.01</v>
       </c>
       <c r="I51" s="7">
         <v>3.1819999999999999</v>
@@ -3109,8 +3130,8 @@
       <c r="G52" s="7">
         <v>4.7E-2</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>94</v>
+      <c r="H52" s="26">
+        <v>0.01</v>
       </c>
       <c r="I52" s="7">
         <v>2.7240000000000002</v>
@@ -3347,8 +3368,8 @@
       <c r="G58" s="7">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>94</v>
+      <c r="H58" s="26">
+        <v>0.01</v>
       </c>
       <c r="I58" s="7">
         <v>2.8180000000000001</v>
@@ -3584,8 +3605,8 @@
       <c r="F64" s="7">
         <v>1.6627983619020501</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>94</v>
+      <c r="G64" s="26">
+        <v>0.01</v>
       </c>
       <c r="H64" s="7">
         <v>4.3419938165771998E-2</v>
@@ -3742,8 +3763,8 @@
       <c r="F68" s="7">
         <v>2.0757454835802198</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>94</v>
+      <c r="G68" s="26">
+        <v>0.01</v>
       </c>
       <c r="H68" s="7">
         <v>4.9334659772181003E-2</v>
@@ -3863,8 +3884,8 @@
       <c r="G71" s="7">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H71" s="7" t="s">
-        <v>94</v>
+      <c r="H71" s="26">
+        <v>0.01</v>
       </c>
       <c r="I71" s="7">
         <v>1.681</v>
@@ -3940,8 +3961,8 @@
       <c r="F73" s="21">
         <v>0.72877091714912867</v>
       </c>
-      <c r="G73" s="21" t="s">
-        <v>94</v>
+      <c r="G73" s="25">
+        <v>0.01</v>
       </c>
       <c r="H73" s="21">
         <v>4.5287479412004339E-2</v>
@@ -4060,8 +4081,8 @@
       <c r="F76" s="7">
         <v>0.46200000000000002</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>94</v>
+      <c r="G76" s="26">
+        <v>0.01</v>
       </c>
       <c r="H76" s="7">
         <v>2.7E-2</v>
@@ -4082,10 +4103,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L82">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L82">
     <sortCondition ref="A2:A82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7837,6 +7859,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F749D07F25E049ABA8AD0FE40505CE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="df84c4b9df5dab607acf25ccbb3403ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c7bbfe5c-3e6f-409d-9b67-9c1ca2a14071" xmlns:ns3="68868ead-3cd8-494b-9fdc-0ea8c62a0d0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf6d9f167100b37e85990c7a8adbe70f" ns2:_="" ns3:_="">
     <xsd:import namespace="c7bbfe5c-3e6f-409d-9b67-9c1ca2a14071"/>
@@ -8069,15 +8100,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8091,6 +8113,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB1C7C6-F750-45B3-9E79-150809A58FFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9AC1E3-C5A1-4B99-9BCA-3A3532CACF13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8105,14 +8135,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB1C7C6-F750-45B3-9E79-150809A58FFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
